--- a/data_voor_swing/gebiedsdefinities/streekwerking.xlsx
+++ b/data_voor_swing/gebiedsdefinities/streekwerking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\gebiedsdefinities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538BB13-B035-4F91-91FF-8A5CBA170EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFDF2DE-2DF3-4ACB-8C61-54799D4E52DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>sw01</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>sw99</t>
   </si>
 </sst>
 </file>
@@ -535,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>

--- a/data_voor_swing/gebiedsdefinities/streekwerking.xlsx
+++ b/data_voor_swing/gebiedsdefinities/streekwerking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\gebiedsdefinities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFDF2DE-2DF3-4ACB-8C61-54799D4E52DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC3EAC-F2E7-4DF6-84F0-CE912832EEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="streekwerking" sheetId="1" r:id="rId1"/>
@@ -181,19 +181,19 @@
     <t>Gebied streekwerking onbekend</t>
   </si>
   <si>
-    <t>sequencenr</t>
-  </si>
-  <si>
-    <t>geoitem code</t>
-  </si>
-  <si>
-    <t>short name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>sw99</t>
+  </si>
+  <si>
+    <t>volgnr</t>
+  </si>
+  <si>
+    <t>gebiedscode</t>
+  </si>
+  <si>
+    <t>naam_kort</t>
+  </si>
+  <si>
+    <t>naam</t>
   </si>
 </sst>
 </file>
@@ -538,24 +538,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
